--- a/Projects/DIAGEOCO_SAND/Data/Diageo_KPIs_v1.xlsx
+++ b/Projects/DIAGEOCO_SAND/Data/Diageo_KPIs_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2.1 Relative Positioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
   <si>
     <t xml:space="preserve">Above Direction</t>
   </si>
@@ -282,10 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Name
-(Hierarchy #3)</t>
   </si>
   <si>
     <t xml:space="preserve">Zacapa</t>
@@ -1037,7 +1033,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="Atomic Name"/>
-    <tableColumn id="3" name="Brand Name&#10;(Hierarchy #3)"/>
+    <tableColumn id="3" name="Brand Name"/>
   </tableColumns>
 </table>
 </file>
@@ -1065,7 +1061,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L19:L20 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2011,8 +2007,8 @@
   </sheetPr>
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="1" sqref="L19:L20 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2219,8 +2215,8 @@
   </sheetPr>
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2284,7 +2280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
         <v>49</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,12 +2296,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="str">
-        <f aca="false">Table136[[#This Row],[Brand Name
-(Hierarchy '#3)]]</f>
+        <f aca="false">Table136[[#This Row],[Brand Name]]</f>
         <v>Zacapa</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,8 +2308,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="str">
-        <f aca="false">Table136[[#This Row],[Brand Name
-(Hierarchy '#3)]]</f>
+        <f aca="false">Table136[[#This Row],[Brand Name]]</f>
         <v>Tanqueray</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -2326,12 +2320,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="0" t="str">
-        <f aca="false">Table136[[#This Row],[Brand Name
-(Hierarchy '#3)]]</f>
+        <f aca="false">Table136[[#This Row],[Brand Name]]</f>
         <v>Smirnoff</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,12 +2332,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="str">
-        <f aca="false">Table136[[#This Row],[Brand Name
-(Hierarchy '#3)]]</f>
+        <f aca="false">Table136[[#This Row],[Brand Name]]</f>
         <v>Gordon's</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,8 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="str">
-        <f aca="false">Table136[[#This Row],[Brand Name
-(Hierarchy '#3)]]</f>
+        <f aca="false">Table136[[#This Row],[Brand Name]]</f>
         <v>Ketel One</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -2365,12 +2356,11 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="str">
-        <f aca="false">Table136[[#This Row],[Brand Name
-(Hierarchy '#3)]]</f>
+        <f aca="false">Table136[[#This Row],[Brand Name]]</f>
         <v>Don Julio</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2396,7 @@
   <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="L19:L20 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2470,22 +2460,22 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,13 +2487,13 @@
         <v>Brand Blocking</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="H7" s="27" t="n">
         <v>0.5</v>
@@ -2518,13 +2508,13 @@
         <v>Secondary Displays</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="27" t="n">
         <v>0.5</v>
@@ -2558,7 +2548,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="L19:L20 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2578,48 +2568,48 @@
     </row>
     <row r="3" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31"/>
       <c r="B5" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31"/>
       <c r="B6" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31"/>
       <c r="B7" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31"/>
       <c r="B8" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31"/>
       <c r="B9" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
